--- a/Joetz/Joetz/Monitor.xlsx
+++ b/Joetz/Joetz/Monitor.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162912"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>E-mailadres</t>
   </si>
@@ -77,12 +77,33 @@
   </si>
   <si>
     <t>052357422</t>
+  </si>
+  <si>
+    <t>Tim@skynet.be</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>Lossie</t>
+  </si>
+  <si>
+    <t>Beekstraat</t>
+  </si>
+  <si>
+    <t>Drongen</t>
+  </si>
+  <si>
+    <t>0475669883</t>
+  </si>
+  <si>
+    <t>092271568</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -186,7 +207,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -221,7 +242,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -398,17 +419,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -511,9 +534,51 @@
         <v>54321</v>
       </c>
     </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>99844468713</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3">
+        <v>66</v>
+      </c>
+      <c r="H3">
+        <v>9031</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3">
+        <v>123456789</v>
+      </c>
+      <c r="M3">
+        <v>1123568</v>
+      </c>
+      <c r="N3">
+        <v>54785</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
